--- a/etc/toy_ex.xlsx
+++ b/etc/toy_ex.xlsx
@@ -678,7 +678,7 @@
         <v>-1.032814264297485</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.187154518100668</v>
+        <v>-1.194787121607018</v>
       </c>
       <c r="F4" t="n">
         <v>-2.230651378631592</v>
@@ -773,7 +773,7 @@
         <v>-1.158902525901794</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9820187698108658</v>
+        <v>-1.096520650487889</v>
       </c>
       <c r="F5" t="n">
         <v>-2.057280302047729</v>
@@ -868,7 +868,7 @@
         <v>-1.151021957397461</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.090393769366624</v>
+        <v>-1.143842497812268</v>
       </c>
       <c r="F6" t="n">
         <v>-1.852387070655823</v>
@@ -963,7 +963,7 @@
         <v>-1.135260939598083</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.080449272139543</v>
+        <v>-1.149049542381527</v>
       </c>
       <c r="F7" t="n">
         <v>-1.639613389968872</v>
@@ -1058,7 +1058,7 @@
         <v>-1.139201164245605</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.072957041495211</v>
+        <v>-1.144562868207534</v>
       </c>
       <c r="F8" t="n">
         <v>-1.615971803665161</v>
@@ -1153,7 +1153,7 @@
         <v>-0.8515626192092896</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.077097988350617</v>
+        <v>-1.14677077034734</v>
       </c>
       <c r="F9" t="n">
         <v>-1.627792596817017</v>
@@ -1248,7 +1248,7 @@
         <v>-0.9067261815071106</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8518799831943774</v>
+        <v>-0.9871448502574633</v>
       </c>
       <c r="F10" t="n">
         <v>-1.454421401023865</v>
@@ -1343,7 +1343,7 @@
         <v>-0.8515626192092896</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9196631466867458</v>
+        <v>-1.004948650534347</v>
       </c>
       <c r="F11" t="n">
         <v>-1.738119840621948</v>
@@ -1438,7 +1438,7 @@
         <v>-0.8594431281089783</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8633442926668504</v>
+        <v>-0.9677153534864598</v>
       </c>
       <c r="F12" t="n">
         <v>-1.714478254318237</v>
@@ -1533,7 +1533,7 @@
         <v>-0.7648770809173584</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8725200513214901</v>
+        <v>-0.9671907690605388</v>
       </c>
       <c r="F13" t="n">
         <v>-1.450481295585632</v>
@@ -1628,7 +1628,7 @@
         <v>-0.8791444301605225</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7882757776357817</v>
+        <v>-0.8975835995476349</v>
       </c>
       <c r="F14" t="n">
         <v>-0.9934117794036865</v>
@@ -1723,7 +1723,7 @@
         <v>-1.115559697151184</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8868877132029691</v>
+        <v>-0.966863127234287</v>
       </c>
       <c r="F15" t="n">
         <v>-0.5048202872276306</v>
@@ -1818,7 +1818,7 @@
         <v>-1.024933815002441</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.04737437655013</v>
+        <v>-1.096168403980205</v>
       </c>
       <c r="F16" t="n">
         <v>-0.6821317076683044</v>
@@ -1913,7 +1913,7 @@
         <v>-1.020993590354919</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9835006235519972</v>
+        <v>-1.074736254377754</v>
       </c>
       <c r="F17" t="n">
         <v>-0.7097135186195374</v>
@@ -2008,7 +2008,7 @@
         <v>-1.024933815002441</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9924837506836288</v>
+        <v>-1.072026584973868</v>
       </c>
       <c r="F18" t="n">
         <v>-0.7136537432670593</v>
@@ -2103,7 +2103,7 @@
         <v>-0.9224872589111328</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.996385695654866</v>
+        <v>-1.074621853123915</v>
       </c>
       <c r="F19" t="n">
         <v>-0.9303677082061768</v>
@@ -2198,7 +2198,7 @@
         <v>-1.005232572555542</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9181604735997869</v>
+        <v>-1.017948649632111</v>
       </c>
       <c r="F20" t="n">
         <v>-0.7885185480117798</v>
@@ -2293,7 +2293,7 @@
         <v>-1.013113021850586</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9869417039133304</v>
+        <v>-1.056681255024197</v>
       </c>
       <c r="F21" t="n">
         <v>-0.8358016014099121</v>
@@ -2388,7 +2388,7 @@
         <v>-0.8870249390602112</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9866269953170623</v>
+        <v>-1.06485968289514</v>
       </c>
       <c r="F22" t="n">
         <v>-0.8161003589630127</v>
@@ -2483,7 +2483,7 @@
         <v>-0.8870249390602112</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8889901516868919</v>
+        <v>-0.9928916205950635</v>
       </c>
       <c r="F23" t="n">
         <v>-0.8397418856620789</v>
@@ -2578,7 +2578,7 @@
         <v>-1.028874158859253</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.897397382065513</v>
+        <v>-0.9842876579131956</v>
       </c>
       <c r="F24" t="n">
         <v>-1.087977886199951</v>
@@ -2673,7 +2673,7 @@
         <v>-1.46624231338501</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.999931398486392</v>
+        <v>-1.061050163201591</v>
       </c>
       <c r="F25" t="n">
         <v>-0.8830846548080444</v>
@@ -2768,7 +2768,7 @@
         <v>-1.840566396713257</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.246871131418862</v>
+        <v>-1.229515262521899</v>
       </c>
       <c r="F26" t="n">
         <v>-0.9934117794036865</v>
@@ -2863,7 +2863,7 @@
         <v>-1.812984585762024</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.401765171706113</v>
+        <v>-1.334984701556215</v>
       </c>
       <c r="F27" t="n">
         <v>-1.355915069580078</v>
@@ -2958,7 +2958,7 @@
         <v>-1.675075650215149</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.410274395849646</v>
+        <v>-1.355357062337488</v>
       </c>
       <c r="F28" t="n">
         <v>-1.032814383506775</v>
@@ -3053,7 +3053,7 @@
         <v>-1.552927851676941</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.3645204135032</v>
+        <v>-1.339052990997648</v>
       </c>
       <c r="F29" t="n">
         <v>-1.158902406692505</v>
@@ -3148,7 +3148,7 @@
         <v>-1.044635057449341</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.311852725970713</v>
+        <v>-1.312156499153011</v>
       </c>
       <c r="F30" t="n">
         <v>-1.151021838188171</v>
@@ -3243,7 +3243,7 @@
         <v>-0.9185469150543213</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9896145714432787</v>
+        <v>-1.133337455471019</v>
       </c>
       <c r="F31" t="n">
         <v>-1.135260939598083</v>
@@ -3338,7 +3338,7 @@
         <v>-0.6781914830207825</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.9183959004447734</v>
+        <v>-1.036954714556415</v>
       </c>
       <c r="F32" t="n">
         <v>-1.139201164245605</v>
@@ -3433,7 +3433,7 @@
         <v>-0.6860719919204712</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.7095697653847668</v>
+        <v>-0.8391444318479045</v>
       </c>
       <c r="F33" t="n">
         <v>-0.8515626192092896</v>
@@ -3528,7 +3528,7 @@
         <v>-1.363795638084412</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.7337493325989416</v>
+        <v>-0.8206163706919382</v>
       </c>
       <c r="F34" t="n">
         <v>-0.9067261815071106</v>
@@ -3623,7 +3623,7 @@
         <v>-0.7333550453186035</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.170262773408158</v>
+        <v>-1.156362390177469</v>
       </c>
       <c r="F35" t="n">
         <v>-0.8515626192092896</v>
@@ -3718,7 +3718,7 @@
         <v>-0.5875656604766846</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.6991209247624304</v>
+        <v>-0.880497225516103</v>
       </c>
       <c r="F36" t="n">
         <v>-0.8594431281089783</v>
@@ -3813,7 +3813,7 @@
         <v>-0.6900122165679932</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.6314608898254346</v>
+        <v>-0.7254229086206654</v>
       </c>
       <c r="F37" t="n">
         <v>-0.7648770809173584</v>
@@ -3908,7 +3908,7 @@
         <v>-0.3275088369846344</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.7203945634364237</v>
+        <v>-0.8019801646007024</v>
       </c>
       <c r="F38" t="n">
         <v>-0.8791444301605225</v>
@@ -4003,7 +4003,7 @@
         <v>-0.4260152280330658</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3168871987123586</v>
+        <v>-0.4187731341332047</v>
       </c>
       <c r="F39" t="n">
         <v>-1.115559697151184</v>
@@ -4098,7 +4098,7 @@
         <v>-0.3866126537322998</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4291976855187424</v>
+        <v>-0.5094889122025466</v>
       </c>
       <c r="F40" t="n">
         <v>-1.024933815002441</v>
@@ -4193,7 +4193,7 @@
         <v>-0.2999270856380463</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3605639255714757</v>
+        <v>-0.4692675132873868</v>
       </c>
       <c r="F41" t="n">
         <v>-1.02099347114563</v>
@@ -4288,7 +4288,7 @@
         <v>-0.1935402154922485</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2591606204402624</v>
+        <v>-0.3591688453916775</v>
       </c>
       <c r="F42" t="n">
         <v>-1.024933815002441</v>
@@ -4383,7 +4383,7 @@
         <v>-0.3196283578872681</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1074615348388633</v>
+        <v>-0.1895111419158572</v>
       </c>
       <c r="F43" t="n">
         <v>-0.922487199306488</v>
@@ -4478,7 +4478,7 @@
         <v>-0.3905529379844666</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2368917276597449</v>
+        <v>-0.3249305111318471</v>
       </c>
       <c r="F44" t="n">
         <v>-1.005232453346252</v>
@@ -4573,7 +4573,7 @@
         <v>-0.1659584492444992</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.3232829963838929</v>
+        <v>-0.4195699998521548</v>
       </c>
       <c r="F45" t="n">
         <v>-1.013113021850586</v>
@@ -4668,7 +4668,7 @@
         <v>-0.1501974314451218</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.05620719698787929</v>
+        <v>-0.1394720676599093</v>
       </c>
       <c r="F46" t="n">
         <v>-0.8870249390602112</v>
@@ -4763,7 +4763,7 @@
         <v>-0.08321312069892883</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01146954008529712</v>
+        <v>-0.05106722383387044</v>
       </c>
       <c r="F47" t="n">
         <v>-0.8870249390602112</v>
@@ -4858,7 +4858,7 @@
         <v>0.2792902290821075</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1634064085087909</v>
+        <v>0.1028014242408075</v>
       </c>
       <c r="F48" t="n">
         <v>-1.028874039649963</v>
@@ -4953,7 +4953,7 @@
         <v>0.7245388627052307</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7491606748886169</v>
+        <v>0.7030128073428327</v>
       </c>
       <c r="F49" t="n">
         <v>-1.46624231338501</v>
@@ -5048,7 +5048,7 @@
         <v>1.063400745391846</v>
       </c>
       <c r="E50" t="n">
-        <v>1.150495046679011</v>
+        <v>1.063361983611555</v>
       </c>
       <c r="F50" t="n">
         <v>-1.840566277503967</v>
@@ -5143,7 +5143,7 @@
         <v>1.477127313613892</v>
       </c>
       <c r="E51" t="n">
-        <v>1.246345211903639</v>
+        <v>1.147115372873047</v>
       </c>
       <c r="F51" t="n">
         <v>-1.812984585762024</v>
@@ -5238,7 +5238,7 @@
         <v>1.173727869987488</v>
       </c>
       <c r="E52" t="n">
-        <v>1.219209507878412</v>
+        <v>1.222265956082996</v>
       </c>
       <c r="F52" t="n">
         <v>-1.675075650215149</v>
@@ -5333,7 +5333,7 @@
         <v>0.6260325312614441</v>
       </c>
       <c r="E53" t="n">
-        <v>1.087556376723516</v>
+        <v>1.14043520186419</v>
       </c>
       <c r="F53" t="n">
         <v>-1.552927851676941</v>
@@ -5428,7 +5428,7 @@
         <v>0.9924761652946472</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8080364705355586</v>
+        <v>0.8562579133812779</v>
       </c>
       <c r="F54" t="n">
         <v>-1.044635057449341</v>
@@ -5523,7 +5523,7 @@
         <v>0.8742685317993164</v>
       </c>
       <c r="E55" t="n">
-        <v>1.050295530844281</v>
+        <v>1.078307645210269</v>
       </c>
       <c r="F55" t="n">
         <v>-0.9185469746589661</v>
@@ -5618,7 +5618,7 @@
         <v>0.8388062119483948</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9375520437039745</v>
+        <v>0.9920597197851067</v>
       </c>
       <c r="F56" t="n">
         <v>-0.6781914830207825</v>
@@ -5713,7 +5713,7 @@
         <v>0.4802431762218475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9315466087667019</v>
+        <v>0.9725057275319843</v>
       </c>
       <c r="F57" t="n">
         <v>-0.6860719919204712</v>
@@ -5808,7 +5808,7 @@
         <v>0.7087778449058533</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6497816831203684</v>
+        <v>0.692117559989639</v>
       </c>
       <c r="F58" t="n">
         <v>-1.363795638084412</v>
@@ -5903,7 +5903,7 @@
         <v>0.720598578453064</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8572685454136971</v>
+        <v>0.8707795122440254</v>
       </c>
       <c r="F59" t="n">
         <v>-0.7333550453186035</v>
@@ -5998,7 +5998,7 @@
         <v>0.7875829339027405</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8075742389989082</v>
+        <v>0.8446806221558179</v>
       </c>
       <c r="F60" t="n">
         <v>-0.5875656008720398</v>
@@ -6093,7 +6093,7 @@
         <v>0.9845956563949585</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8490620429703504</v>
+        <v>0.888177861018333</v>
       </c>
       <c r="F61" t="n">
         <v>-0.6900122165679932</v>
@@ -6188,7 +6188,7 @@
         <v>0.7442401051521301</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9563683161069741</v>
+        <v>1.011019519496461</v>
       </c>
       <c r="F62" t="n">
         <v>-0.3275088369846344</v>
@@ -6283,7 +6283,7 @@
         <v>0.2280669361352921</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8219015765413733</v>
+        <v>0.8633800223220143</v>
       </c>
       <c r="F63" t="n">
         <v>-0.4260151982307434</v>
@@ -6378,7 +6378,7 @@
         <v>0.1216800808906555</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3367603213370135</v>
+        <v>0.3725090307902766</v>
       </c>
       <c r="F64" t="n">
         <v>-0.3866126537322998</v>
@@ -6473,7 +6473,7 @@
         <v>0.1768436282873154</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1695576051539073</v>
+        <v>0.1558177963853221</v>
       </c>
       <c r="F65" t="n">
         <v>-0.2999270558357239</v>
@@ -6568,7 +6568,7 @@
         <v>0.5157054662704468</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1862663919588443</v>
+        <v>0.1410314869007554</v>
       </c>
       <c r="F66" t="n">
         <v>-0.1935402303934097</v>
@@ -6663,7 +6663,7 @@
         <v>0.4369003772735596</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4716519385372185</v>
+        <v>0.477023592631188</v>
       </c>
       <c r="F67" t="n">
         <v>-0.3196283280849457</v>
@@ -6758,7 +6758,7 @@
         <v>0.4408406615257263</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3857449298999776</v>
+        <v>0.418439609557515</v>
       </c>
       <c r="F68" t="n">
         <v>-0.3905529081821442</v>
@@ -6853,7 +6853,7 @@
         <v>0.4763029217720032</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4074081164095955</v>
+        <v>0.4478353955223806</v>
       </c>
       <c r="F69" t="n">
         <v>-0.1659584641456604</v>
@@ -6948,7 +6948,7 @@
         <v>-0.4732982814311981</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4476553817847224</v>
+        <v>0.4949864295775855</v>
       </c>
       <c r="F70" t="n">
         <v>-0.150197446346283</v>
@@ -7043,7 +7043,7 @@
         <v>-0.08321312069892883</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3384441066674566</v>
+        <v>-0.368125238590599</v>
       </c>
       <c r="F71" t="n">
         <v>-0.08321312069892883</v>
@@ -7138,7 +7138,7 @@
         <v>-0.04381058365106583</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0182910927218232</v>
+        <v>0.002532809601879144</v>
       </c>
       <c r="F72" t="n">
         <v>0.2792902588844299</v>
@@ -7233,7 +7233,7 @@
         <v>0.2477681934833527</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08712026404793291</v>
+        <v>0.1227312819185655</v>
       </c>
       <c r="F73" t="n">
         <v>0.7245388627052307</v>
@@ -7328,7 +7328,7 @@
         <v>0.2320071756839752</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3901173868295011</v>
+        <v>0.4066304139521454</v>
       </c>
       <c r="F74" t="n">
         <v>1.063400745391846</v>
@@ -7423,7 +7423,7 @@
         <v>0.2123059183359146</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3886246502485055</v>
+        <v>0.4190450003837808</v>
       </c>
       <c r="F75" t="n">
         <v>1.477127313613892</v>
@@ -7518,7 +7518,7 @@
         <v>0.4920639395713806</v>
       </c>
       <c r="E76" t="n">
-        <v>0.379890987248062</v>
+        <v>0.3995877444850076</v>
       </c>
       <c r="F76" t="n">
         <v>1.173727869987488</v>
@@ -7613,7 +7613,7 @@
         <v>0.2674694657325745</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6022126849254489</v>
+        <v>0.5791501071593717</v>
       </c>
       <c r="F77" t="n">
         <v>0.6260325312614441</v>
@@ -7708,7 +7708,7 @@
         <v>0.05863601341843605</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4310452765760426</v>
+        <v>0.4376123081095958</v>
       </c>
       <c r="F78" t="n">
         <v>0.9924761056900024</v>
@@ -7803,7 +7803,7 @@
         <v>0.3147525191307068</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2336167607355244</v>
+        <v>0.2303105460986444</v>
       </c>
       <c r="F79" t="n">
         <v>0.8742685317993164</v>
@@ -7898,7 +7898,7 @@
         <v>0.8821490406990051</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4968880875521284</v>
+        <v>0.4347318254365364</v>
       </c>
       <c r="F80" t="n">
         <v>0.8388062119483948</v>
@@ -7993,7 +7993,7 @@
         <v>1.083101987838745</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7635679250716313</v>
+        <v>0.7579027497459604</v>
       </c>
       <c r="F81" t="n">
         <v>0.4802431762218475</v>
@@ -8088,7 +8088,7 @@
         <v>0.7521206736564636</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8689808469424009</v>
+        <v>0.9279377118602155</v>
       </c>
       <c r="F82" t="n">
         <v>0.7087778449058533</v>
@@ -8183,7 +8183,7 @@
         <v>0.7481803894042969</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7777590431064234</v>
+        <v>0.8255627321088506</v>
       </c>
       <c r="F83" t="n">
         <v>0.7205986380577087</v>
@@ -8278,7 +8278,7 @@
         <v>0.6299727559089661</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8212540212823967</v>
+        <v>0.8537027592738228</v>
       </c>
       <c r="F84" t="n">
         <v>0.7875829935073853</v>
@@ -8373,7 +8373,7 @@
         <v>0.3265732824802399</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7420731071352759</v>
+        <v>0.7735878135661776</v>
       </c>
       <c r="F85" t="n">
         <v>0.9845956563949585</v>
@@ -8468,7 +8468,7 @@
         <v>0.7481803894042969</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4613766187504957</v>
+        <v>0.4869542628684895</v>
       </c>
       <c r="F86" t="n">
         <v>0.7442401647567749</v>
@@ -8563,7 +8563,7 @@
         <v>0.8427464962005615</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8129175556499462</v>
+        <v>0.8289428790817649</v>
       </c>
       <c r="F87" t="n">
         <v>0.2280669212341309</v>
@@ -8658,7 +8658,7 @@
         <v>0.7560608983039856</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8182565612243229</v>
+        <v>0.8747149994946511</v>
       </c>
       <c r="F88" t="n">
         <v>0.1216800734400749</v>
@@ -8753,7 +8753,7 @@
         <v>0.6654350757598877</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7868219777303929</v>
+        <v>0.8363019920906565</v>
       </c>
       <c r="F89" t="n">
         <v>0.1768436133861542</v>
@@ -8848,7 +8848,7 @@
         <v>0.8782087564468384</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7456013027896288</v>
+        <v>0.7833245905019359</v>
       </c>
       <c r="F90" t="n">
         <v>0.5157054662704468</v>
@@ -8943,7 +8943,7 @@
         <v>0.9530735611915588</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8920424258004713</v>
+        <v>0.9380902973973578</v>
       </c>
       <c r="F91" t="n">
         <v>0.4369003772735596</v>
@@ -9038,7 +9038,7 @@
         <v>0.9491333365440369</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9283474744394526</v>
+        <v>0.9867220811374762</v>
       </c>
       <c r="F92" t="n">
         <v>0.4408406317234039</v>
@@ -9133,7 +9133,7 @@
         <v>0.976715087890625</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9473621615170791</v>
+        <v>0.9991406106270334</v>
       </c>
       <c r="F93" t="n">
         <v>0.4763029515743256</v>
@@ -9228,7 +9228,7 @@
         <v>1.090982556343079</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9814394350043288</v>
+        <v>1.027978559044171</v>
       </c>
       <c r="F94" t="n">
         <v>-0.4732982218265533</v>
@@ -9323,7 +9323,7 @@
         <v>1.232831597328186</v>
       </c>
       <c r="E95" t="n">
-        <v>1.045245893147262</v>
+        <v>1.097017823068119</v>
       </c>
       <c r="F95" t="n">
         <v>-0.08321312069892883</v>
@@ -9418,7 +9418,7 @@
         <v>1.260413408279419</v>
       </c>
       <c r="E96" t="n">
-        <v>1.105367537375187</v>
+        <v>1.168565502819622</v>
       </c>
       <c r="F96" t="n">
         <v>-0.04381058365106583</v>
@@ -9513,7 +9513,7 @@
         <v>1.201309561729431</v>
       </c>
       <c r="E97" t="n">
-        <v>1.124405041614654</v>
+        <v>1.189732468633303</v>
       </c>
       <c r="F97" t="n">
         <v>0.2477681785821915</v>
@@ -9608,7 +9608,7 @@
         <v>1.248592615127563</v>
       </c>
       <c r="E98" t="n">
-        <v>1.118994745553051</v>
+        <v>1.175748597722883</v>
       </c>
       <c r="F98" t="n">
         <v>0.232007160782814</v>
@@ -9703,7 +9703,7 @@
         <v>1.134325385093689</v>
       </c>
       <c r="E99" t="n">
-        <v>1.145725944409604</v>
+        <v>1.203337805983228</v>
       </c>
       <c r="F99" t="n">
         <v>0.2123059183359146</v>
@@ -9798,7 +9798,7 @@
         <v>0.7757622003555298</v>
       </c>
       <c r="E100" t="n">
-        <v>1.110213608135228</v>
+        <v>1.157946900410224</v>
       </c>
       <c r="F100" t="n">
         <v>0.492063969373703</v>
@@ -9893,7 +9893,7 @@
         <v>0.8782087564468384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9399354382083545</v>
+        <v>0.9527866525872012</v>
       </c>
       <c r="F101" t="n">
         <v>0.2674694657325745</v>
@@ -9988,7 +9988,7 @@
         <v>1.228891372680664</v>
       </c>
       <c r="E102" t="n">
-        <v>1.026596806400148</v>
+        <v>1.028148688849971</v>
       </c>
       <c r="F102" t="n">
         <v>0.05863601341843605</v>
@@ -10083,7 +10083,7 @@
         <v>1.323457360267639</v>
       </c>
       <c r="E103" t="n">
-        <v>1.144940907864419</v>
+        <v>1.191420728313116</v>
       </c>
       <c r="F103" t="n">
         <v>0.3147525191307068</v>
@@ -10178,7 +10178,7 @@
         <v>0.9215515851974487</v>
       </c>
       <c r="E104" t="n">
-        <v>1.154613702113633</v>
+        <v>1.22324204692802</v>
       </c>
       <c r="F104" t="n">
         <v>0.8821490406990051</v>
@@ -10273,7 +10273,7 @@
         <v>0.917611300945282</v>
       </c>
       <c r="E105" t="n">
-        <v>1.007130507755208</v>
+        <v>1.03662647367834</v>
       </c>
       <c r="F105" t="n">
         <v>1.083101987838745</v>
@@ -10368,7 +10368,7 @@
         <v>1.035818934440613</v>
       </c>
       <c r="E106" t="n">
-        <v>1.036476322032677</v>
+        <v>1.045841242319353</v>
       </c>
       <c r="F106" t="n">
         <v>0.7521206736564636</v>
@@ -10463,7 +10463,7 @@
         <v>0.9688346385955811</v>
       </c>
       <c r="E107" t="n">
-        <v>1.080838878099665</v>
+        <v>1.105218962952692</v>
       </c>
       <c r="F107" t="n">
         <v>0.7481804490089417</v>
@@ -10558,7 +10558,7 @@
         <v>1.090982556343079</v>
       </c>
       <c r="E108" t="n">
-        <v>1.036893760431335</v>
+        <v>1.06172493111062</v>
       </c>
       <c r="F108" t="n">
         <v>0.6299727559089661</v>
@@ -10653,7 +10653,7 @@
         <v>0.858507513999939</v>
       </c>
       <c r="E109" t="n">
-        <v>1.095902305694979</v>
+        <v>1.125947250429043</v>
       </c>
       <c r="F109" t="n">
         <v>0.3265732824802399</v>
@@ -10748,7 +10748,7 @@
         <v>0.8900295495986938</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9739580346257548</v>
+        <v>0.9911876205210078</v>
       </c>
       <c r="F110" t="n">
         <v>0.7481804490089417</v>
@@ -10843,7 +10843,7 @@
         <v>1.016117691993713</v>
       </c>
       <c r="E111" t="n">
-        <v>1.010052681694027</v>
+        <v>1.017211592508701</v>
       </c>
       <c r="F111" t="n">
         <v>0.8427464962005615</v>
@@ -10938,7 +10938,7 @@
         <v>1.098863005638123</v>
       </c>
       <c r="E112" t="n">
-        <v>1.058467965267184</v>
+        <v>1.081421714634618</v>
       </c>
       <c r="F112" t="n">
         <v>0.7560609579086304</v>
@@ -11033,7 +11033,7 @@
         <v>0.9648943543434143</v>
       </c>
       <c r="E113" t="n">
-        <v>1.083064865731806</v>
+        <v>1.118507383593912</v>
       </c>
       <c r="F113" t="n">
         <v>0.6654350757598877</v>
@@ -11128,7 +11128,7 @@
         <v>0.972774863243103</v>
       </c>
       <c r="E114" t="n">
-        <v>1.024643573227988</v>
+        <v>1.049557705845948</v>
       </c>
       <c r="F114" t="n">
         <v>0.8782087564468384</v>
@@ -11223,7 +11223,7 @@
         <v>1.169787645339966</v>
       </c>
       <c r="E115" t="n">
-        <v>1.041435952860867</v>
+        <v>1.059602724762982</v>
       </c>
       <c r="F115" t="n">
         <v>0.9530736207962036</v>
@@ -11318,7 +11318,7 @@
         <v>1.228891372680664</v>
       </c>
       <c r="E116" t="n">
-        <v>1.118938806704666</v>
+        <v>1.156585967112029</v>
       </c>
       <c r="F116" t="n">
         <v>0.9491333365440369</v>
@@ -11413,7 +11413,7 @@
         <v>1.150086283683777</v>
       </c>
       <c r="E117" t="n">
-        <v>1.130583129914797</v>
+        <v>1.180889924660112</v>
       </c>
       <c r="F117" t="n">
         <v>0.976715087890625</v>
@@ -11508,7 +11508,7 @@
         <v>1.055520176887512</v>
       </c>
       <c r="E118" t="n">
-        <v>1.110162506104561</v>
+        <v>1.152224419309423</v>
       </c>
       <c r="F118" t="n">
         <v>1.090982437133789</v>
@@ -11603,7 +11603,7 @@
         <v>1.118564248085022</v>
       </c>
       <c r="E119" t="n">
-        <v>1.083411959977138</v>
+        <v>1.112402057855953</v>
       </c>
       <c r="F119" t="n">
         <v>1.232831597328186</v>
@@ -11698,7 +11698,7 @@
         <v>1.134325385093689</v>
       </c>
       <c r="E120" t="n">
-        <v>1.114926350963406</v>
+        <v>1.146803608426694</v>
       </c>
       <c r="F120" t="n">
         <v>1.260413408279419</v>
@@ -11793,7 +11793,7 @@
         <v>0.9806554317474365</v>
       </c>
       <c r="E121" t="n">
-        <v>1.115420757852699</v>
+        <v>1.152988846805203</v>
       </c>
       <c r="F121" t="n">
         <v>1.201309561729431</v>
@@ -11888,7 +11888,7 @@
         <v>1.1146240234375</v>
       </c>
       <c r="E122" t="n">
-        <v>1.051467512806862</v>
+        <v>1.075005991377052</v>
       </c>
       <c r="F122" t="n">
         <v>1.248592615127563</v>
@@ -11983,7 +11983,7 @@
         <v>0.7678816318511963</v>
       </c>
       <c r="E123" t="n">
-        <v>1.118301503396286</v>
+        <v>1.147256376624332</v>
       </c>
       <c r="F123" t="n">
         <v>1.134325385093689</v>
@@ -12078,7 +12078,7 @@
         <v>0.3620355725288391</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9262783679384957</v>
+        <v>0.9363760661093662</v>
       </c>
       <c r="F124" t="n">
         <v>0.7757622003555298</v>
@@ -12173,7 +12173,7 @@
         <v>0.5590482354164124</v>
       </c>
       <c r="E125" t="n">
-        <v>0.596577319117667</v>
+        <v>0.5959914332845879</v>
       </c>
       <c r="F125" t="n">
         <v>0.8782087564468384</v>
@@ -12268,7 +12268,7 @@
         <v>0.7008973360061646</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7900965033251077</v>
+        <v>0.7702761706528918</v>
       </c>
       <c r="F126" t="n">
         <v>1.228891372680664</v>
@@ -12363,7 +12363,7 @@
         <v>0.7324193716049194</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8109449752069159</v>
+        <v>0.8278501262963602</v>
       </c>
       <c r="F127" t="n">
         <v>1.323457479476929</v>
@@ -12458,7 +12458,7 @@
         <v>0.7797024250030518</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8027708584126337</v>
+        <v>0.833228877894589</v>
       </c>
       <c r="F128" t="n">
         <v>0.9215515851974487</v>
@@ -12553,7 +12553,7 @@
         <v>0.7954634428024292</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8328481887957622</v>
+        <v>0.8682966475318039</v>
       </c>
       <c r="F129" t="n">
         <v>0.917611300945282</v>
@@ -12648,7 +12648,7 @@
         <v>0.2989915013313293</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8465800194438189</v>
+        <v>0.8834787874576174</v>
       </c>
       <c r="F130" t="n">
         <v>1.035818934440613</v>
@@ -12743,7 +12743,7 @@
         <v>0.5905702114105225</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3980225870735141</v>
+        <v>0.4263268294574044</v>
       </c>
       <c r="F131" t="n">
         <v>0.9688346385955811</v>
@@ -12838,7 +12838,7 @@
         <v>0.5275261998176575</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6961020988808123</v>
+        <v>0.705194685300354</v>
       </c>
       <c r="F132" t="n">
         <v>1.090982437133789</v>
@@ -12933,7 +12933,7 @@
         <v>0.1413813382387161</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5714781782220144</v>
+        <v>0.601828368213334</v>
       </c>
       <c r="F133" t="n">
         <v>0.858507513999939</v>
@@ -13028,7 +13028,7 @@
         <v>0.0231737308204174</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1206333713794897</v>
+        <v>0.1266636147228538</v>
       </c>
       <c r="F134" t="n">
         <v>0.8900295495986938</v>
@@ -13123,7 +13123,7 @@
         <v>-0.9067261815071106</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.06995821061272568</v>
+        <v>-0.1068416204159187</v>
       </c>
       <c r="F135" t="n">
         <v>1.016117691993713</v>
@@ -13218,7 +13218,7 @@
         <v>-0.9382482171058655</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.7160006299847526</v>
+        <v>-0.76659731834848</v>
       </c>
       <c r="F136" t="n">
         <v>1.098863005638123</v>
@@ -13313,7 +13313,7 @@
         <v>-0.8042795658111572</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.8482872791124232</v>
+        <v>-0.8867156907293658</v>
       </c>
       <c r="F137" t="n">
         <v>0.9648943543434143</v>
@@ -13408,7 +13408,7 @@
         <v>-0.8791444301605225</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.7988647808237128</v>
+        <v>-0.8600413770550984</v>
       </c>
       <c r="F138" t="n">
         <v>0.9727749228477478</v>
@@ -13503,7 +13503,7 @@
         <v>-0.7175940275192261</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.8601903720704381</v>
+        <v>-0.900052794992394</v>
       </c>
       <c r="F139" t="n">
         <v>1.169787526130676</v>
@@ -13598,7 +13598,7 @@
         <v>-1.19042444229126</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.7519702558298498</v>
+        <v>-0.8083666566555411</v>
       </c>
       <c r="F140" t="n">
         <v>1.228891372680664</v>
@@ -13693,7 +13693,7 @@
         <v>-1.024933815002441</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.038095152055621</v>
+        <v>-1.041831593742352</v>
       </c>
       <c r="F141" t="n">
         <v>1.150086402893066</v>
@@ -13788,7 +13788,7 @@
         <v>-0.7097135186195374</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.946629246647229</v>
+        <v>-1.027679695990356</v>
       </c>
       <c r="F142" t="n">
         <v>1.055520296096802</v>
@@ -13883,7 +13883,7 @@
         <v>-0.9382482171058655</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.7254198593225392</v>
+        <v>-0.8303054103397897</v>
       </c>
       <c r="F143" t="n">
         <v>1.118564367294312</v>
@@ -13978,7 +13978,7 @@
         <v>-0.8279210925102234</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.9167370822641099</v>
+        <v>-0.9654222812955426</v>
       </c>
       <c r="F144" t="n">
         <v>1.134325385093689</v>
@@ -14073,7 +14073,7 @@
         <v>-0.7333550453186035</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.8206992274824024</v>
+        <v>-0.9176449319200334</v>
       </c>
       <c r="F145" t="n">
         <v>0.9806553721427917</v>
@@ -14168,7 +14168,7 @@
         <v>-0.6151474118232727</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.7564993047329758</v>
+        <v>-0.8480305597546589</v>
       </c>
       <c r="F146" t="n">
         <v>1.1146240234375</v>
@@ -14263,7 +14263,7 @@
         <v>-0.5836253762245178</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.6558021749885103</v>
+        <v>-0.7437169098583915</v>
       </c>
       <c r="F147" t="n">
         <v>0.7678816914558411</v>
@@ -14358,7 +14358,7 @@
         <v>-0.8318613767623901</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6265714454282528</v>
+        <v>-0.7073081850831187</v>
       </c>
       <c r="F148" t="n">
         <v>0.3620355725288391</v>
@@ -14453,7 +14453,7 @@
         <v>-1.158902525901794</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.8232256761281865</v>
+        <v>-0.89305717934979</v>
       </c>
       <c r="F149" t="n">
         <v>0.5590482354164124</v>
@@ -14548,7 +14548,7 @@
         <v>-0.6781914830207825</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.037147135783</v>
+        <v>-1.080366099904445</v>
       </c>
       <c r="F150" t="n">
         <v>0.7008973360061646</v>
@@ -14643,7 +14643,7 @@
         <v>-0.5245215892791748</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.6708418390880815</v>
+        <v>-0.8251854810635501</v>
       </c>
       <c r="F151" t="n">
         <v>0.7324193716049194</v>
@@ -14738,7 +14738,7 @@
         <v>-0.7097135186195374</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5780899184820093</v>
+        <v>-0.6626081558321268</v>
       </c>
       <c r="F152" t="n">
         <v>0.7797024846076965</v>
@@ -14833,7 +14833,7 @@
         <v>-0.7215343117713928</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.7383130804117798</v>
+        <v>-0.8130733008874667</v>
       </c>
       <c r="F153" t="n">
         <v>0.795463502407074</v>
@@ -14928,7 +14928,7 @@
         <v>-1.08403754234314</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.7310572229463348</v>
+        <v>-0.8357999301186035</v>
       </c>
       <c r="F154" t="n">
         <v>0.2989915311336517</v>
@@ -15023,7 +15023,7 @@
         <v>-1.103738903999329</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.9992082942376328</v>
+        <v>-1.049206689279354</v>
       </c>
       <c r="F155" t="n">
         <v>0.5905702710151672</v>
@@ -15118,7 +15118,7 @@
         <v>-1.099798679351807</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.019585702133046</v>
+        <v>-1.098600271809971</v>
       </c>
       <c r="F156" t="n">
         <v>0.5275261998176575</v>
@@ -15213,7 +15213,7 @@
         <v>-0.8318613767623901</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.033139306563035</v>
+        <v>-1.112635244751058</v>
       </c>
       <c r="F157" t="n">
         <v>0.1413813382387161</v>
@@ -15308,7 +15308,7 @@
         <v>-0.871263861656189</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.8337703067709706</v>
+        <v>-0.9662872304812765</v>
       </c>
       <c r="F158" t="n">
         <v>0.02317372709512711</v>
@@ -15403,7 +15403,7 @@
         <v>-1.024933815002441</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.8876188087157831</v>
+        <v>-0.978995969033881</v>
       </c>
       <c r="F159" t="n">
         <v>-0.9067261815071106</v>
@@ -15498,7 +15498,7 @@
         <v>-1.174663424491882</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.9930565981385131</v>
+        <v>-1.065909903229095</v>
       </c>
       <c r="F160" t="n">
         <v>-0.9382482767105103</v>
@@ -15593,7 +15593,7 @@
         <v>-1.513525247573853</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.088822855090565</v>
+        <v>-1.146321156596039</v>
       </c>
       <c r="F161" t="n">
         <v>-0.8042795658111572</v>
@@ -15688,7 +15688,7 @@
         <v>-1.939072608947754</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.2713868574644</v>
+        <v>-1.268366054503429</v>
       </c>
       <c r="F162" t="n">
         <v>-0.8791444301605225</v>
@@ -15783,7 +15783,7 @@
         <v>-1.48594343662262</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.429236193377014</v>
+        <v>-1.367745624586839</v>
       </c>
       <c r="F163" t="n">
         <v>-0.7175940275192261</v>
@@ -15878,7 +15878,7 @@
         <v>-0.9185469150543213</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.27613093445953</v>
+        <v>-1.311276198328435</v>
       </c>
       <c r="F164" t="n">
         <v>-1.19042444229126</v>
@@ -15973,7 +15973,7 @@
         <v>-0.4063139259815216</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.887201896058181</v>
+        <v>-1.065299623011006</v>
       </c>
       <c r="F165" t="n">
         <v>-1.024933815002441</v>
@@ -16068,7 +16068,7 @@
         <v>-0.2881063222885132</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.4230702260823155</v>
+        <v>-0.5502022470240345</v>
       </c>
       <c r="F166" t="n">
         <v>-0.7097135186195374</v>
@@ -16163,7 +16163,7 @@
         <v>-0.2684050500392914</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.3026064944015824</v>
+        <v>-0.3257923847324019</v>
       </c>
       <c r="F167" t="n">
         <v>-0.9382482767105103</v>
@@ -16258,7 +16258,7 @@
         <v>-0.2959868311882019</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.2219187801002113</v>
+        <v>-0.2687399116426227</v>
       </c>
       <c r="F168" t="n">
         <v>-0.8279210925102234</v>
@@ -16353,7 +16353,7 @@
         <v>-0.04381058365106583</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.2219693826768749</v>
+        <v>-0.3055528524289893</v>
       </c>
       <c r="F169" t="n">
         <v>-0.7333550453186035</v>
@@ -16448,7 +16448,7 @@
         <v>0.1689631193876266</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1492548787755341</v>
+        <v>0.07893875073416572</v>
       </c>
       <c r="F170" t="n">
         <v>-0.6151474118232727</v>
@@ -16543,7 +16543,7 @@
         <v>0.2201864123344421</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5923405822418131</v>
+        <v>0.5241959717732765</v>
       </c>
       <c r="F171" t="n">
         <v>-0.5836253762245178</v>
@@ -16638,7 +16638,7 @@
         <v>0.4566016495227814</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8020642624330407</v>
+        <v>0.7678004560190352</v>
       </c>
       <c r="F172" t="n">
         <v>-0.8318613767623901</v>
@@ -16733,7 +16733,7 @@
         <v>0.4999444186687469</v>
       </c>
       <c r="E173" t="n">
-        <v>1.057285994224534</v>
+        <v>0.9978168997956204</v>
       </c>
       <c r="F173" t="n">
         <v>-1.158902406692505</v>
@@ -16828,7 +16828,7 @@
         <v>0.7166584134101868</v>
       </c>
       <c r="E174" t="n">
-        <v>1.043656998527079</v>
+        <v>0.946439275666947</v>
       </c>
       <c r="F174" t="n">
         <v>-0.6781914830207825</v>
@@ -16923,7 +16923,7 @@
         <v>0.9097307920455933</v>
       </c>
       <c r="E175" t="n">
-        <v>1.123640614118874</v>
+        <v>0.9930520034546629</v>
       </c>
       <c r="F175" t="n">
         <v>-0.5245215892791748</v>
@@ -17018,7 +17018,7 @@
         <v>0.9924761652946472</v>
       </c>
       <c r="E176" t="n">
-        <v>1.134954771945684</v>
+        <v>1.032890768029088</v>
       </c>
       <c r="F176" t="n">
         <v>-0.7097135186195374</v>
@@ -17113,7 +17113,7 @@
         <v>0.91367107629776</v>
       </c>
       <c r="E177" t="n">
-        <v>1.103162369088874</v>
+        <v>1.049401455604032</v>
       </c>
       <c r="F177" t="n">
         <v>-0.721534252166748</v>
@@ -17208,7 +17208,7 @@
         <v>1.248592615127563</v>
       </c>
       <c r="E178" t="n">
-        <v>1.029180928839802</v>
+        <v>1.007206740208363</v>
       </c>
       <c r="F178" t="n">
         <v>-1.08403754234314</v>
@@ -17303,7 +17303,7 @@
         <v>1.102803230285645</v>
       </c>
       <c r="E179" t="n">
-        <v>1.129749304599593</v>
+        <v>1.163281910352574</v>
       </c>
       <c r="F179" t="n">
         <v>-1.103738903999329</v>
@@ -17398,7 +17398,7 @@
         <v>1.161907076835632</v>
       </c>
       <c r="E180" t="n">
-        <v>1.055820543604358</v>
+        <v>1.108942050816595</v>
       </c>
       <c r="F180" t="n">
         <v>-1.099798560142517</v>
@@ -17493,7 +17493,7 @@
         <v>1.000356674194336</v>
       </c>
       <c r="E181" t="n">
-        <v>1.092057351054238</v>
+        <v>1.147339864304064</v>
       </c>
       <c r="F181" t="n">
         <v>-0.8318613767623901</v>
@@ -17588,7 +17588,7 @@
         <v>0.9018502831459045</v>
       </c>
       <c r="E182" t="n">
-        <v>1.028873265173688</v>
+        <v>1.074712733015879</v>
       </c>
       <c r="F182" t="n">
         <v>-0.8712639212608337</v>
@@ -17683,7 +17683,7 @@
         <v>0.8821490406990051</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9954258294718192</v>
+        <v>1.025608413214408</v>
       </c>
       <c r="F183" t="n">
         <v>-1.024933815002441</v>
@@ -17778,7 +17778,7 @@
         <v>0.5472274422645569</v>
       </c>
       <c r="E184" t="n">
-        <v>0.988519169215932</v>
+        <v>1.013483878123503</v>
       </c>
       <c r="F184" t="n">
         <v>-1.174663424491882</v>
@@ -17873,7 +17873,7 @@
         <v>0.8506270051002502</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7390809044877645</v>
+        <v>0.7595798637153811</v>
       </c>
       <c r="F185" t="n">
         <v>-1.513525366783142</v>
@@ -17968,7 +17968,7 @@
         <v>1.544111728668213</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9744336199852338</v>
+        <v>0.9848915559278432</v>
       </c>
       <c r="F186" t="n">
         <v>-1.939072608947754</v>
@@ -18063,7 +18063,7 @@
         <v>1.559872627258301</v>
       </c>
       <c r="E187" t="n">
-        <v>1.163889982458226</v>
+        <v>1.253498760159539</v>
       </c>
       <c r="F187" t="n">
         <v>-1.48594343662262</v>
@@ -18158,7 +18158,7 @@
         <v>1.15796685218811</v>
       </c>
       <c r="E188" t="n">
-        <v>1.170352076076953</v>
+        <v>1.268921794637324</v>
       </c>
       <c r="F188" t="n">
         <v>-0.9185469746589661</v>
@@ -18253,7 +18253,7 @@
         <v>1.485007882118225</v>
       </c>
       <c r="E189" t="n">
-        <v>1.09420090248876</v>
+        <v>1.147651418453995</v>
       </c>
       <c r="F189" t="n">
         <v>-0.4063139259815216</v>
@@ -18348,7 +18348,7 @@
         <v>1.831750154495239</v>
       </c>
       <c r="E190" t="n">
-        <v>1.208799834964766</v>
+        <v>1.278926962382295</v>
       </c>
       <c r="F190" t="n">
         <v>-0.2881062924861908</v>
@@ -18443,7 +18443,7 @@
         <v>1.953898072242737</v>
       </c>
       <c r="E191" t="n">
-        <v>1.248939533719785</v>
+        <v>1.361236982147974</v>
       </c>
       <c r="F191" t="n">
         <v>-0.268405020236969</v>
@@ -18538,7 +18538,7 @@
         <v>1.894794344902039</v>
       </c>
       <c r="E192" t="n">
-        <v>1.259734785124081</v>
+        <v>1.391559518159735</v>
       </c>
       <c r="F192" t="n">
         <v>-0.2959868013858795</v>
@@ -18633,7 +18633,7 @@
         <v>1.646558284759521</v>
       </c>
       <c r="E193" t="n">
-        <v>1.259285276520991</v>
+        <v>1.392612577495393</v>
       </c>
       <c r="F193" t="n">
         <v>-0.04381058365106583</v>
@@ -18728,7 +18728,7 @@
         <v>1.504709124565125</v>
       </c>
       <c r="E194" t="n">
-        <v>1.238188760008847</v>
+        <v>1.350904067428539</v>
       </c>
       <c r="F194" t="n">
         <v>0.1689631193876266</v>
@@ -18823,7 +18823,7 @@
         <v>1.335278153419495</v>
       </c>
       <c r="E195" t="n">
-        <v>1.225162263561848</v>
+        <v>1.317700891021402</v>
       </c>
       <c r="F195" t="n">
         <v>0.2201864272356033</v>
@@ -18918,7 +18918,7 @@
         <v>1.335278153419495</v>
       </c>
       <c r="E196" t="n">
-        <v>1.194819854538161</v>
+        <v>1.265240345465076</v>
       </c>
       <c r="F196" t="n">
         <v>0.4566016495227814</v>
@@ -19013,7 +19013,7 @@
         <v>1.595334887504578</v>
       </c>
       <c r="E197" t="n">
-        <v>1.20068354968667</v>
+        <v>1.267026813574196</v>
       </c>
       <c r="F197" t="n">
         <v>0.4999444782733917</v>
@@ -19108,7 +19108,7 @@
         <v>1.764765977859497</v>
       </c>
       <c r="E198" t="n">
-        <v>1.247451055641345</v>
+        <v>1.344636603148834</v>
       </c>
       <c r="F198" t="n">
         <v>0.716658353805542</v>
